--- a/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="20"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
   <si>
     <t>버전</t>
   </si>
@@ -4537,6 +4537,39 @@
   </si>
   <si>
     <t>사용유무(Y/N)</t>
+  </si>
+  <si>
+    <t>차량 seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"car_list": [{"TOTAL":"5","CURRENT_PAGE":"1"}],"data":[{"CAR_SEQ":"1","CAR_COMPANY":"현대","CAR_MODEL":"싼타페","CAR_NUMBER":"12가1234"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"car_list": [{"TOTAL":"5","CURRENT_PAGE":"1","CURRENT_NUM":"20"}],"data":[{"CAR_SEQ":"1","CAR_COMPANY":"현대","CAR_MODEL":"싼타페","CAR_NUMBER":"12가1234"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>CAR_SELECTED</t>
+  </si>
+  <si>
+    <t>선택여부</t>
+  </si>
+  <si>
+    <t>선택여부(FALSE 고정)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"car_list": [{"TOTAL":"5","CURRENT_PAGE":"1","CURRENT_NUM":"20"}],"data":[{"CAR_SEQ":"1","CAR_COMPANY":"현대","CAR_MODEL":"싼타페","CAR_NUMBER":"12가1234","CAR_SELECTED":"false"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_list": [{"TOTAL":"5","CURRENT_PAGE":"1","":""}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CARD_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_list": [{"TOTAL":"5","CURRENT_PAGE":"1","CURRENT_NUM":"1"}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CARD_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>……CARD_SELECTED</t>
+  </si>
+  <si>
+    <t>CARD_SELECTED</t>
   </si>
 </sst>
 </file>
@@ -17433,8 +17466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H27"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -20987,8 +21020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K27"/>
+    <sheetView topLeftCell="C17" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -21398,7 +21431,7 @@
       </c>
       <c r="C19" s="176"/>
       <c r="D19" s="177" t="s">
-        <v>470</v>
+        <v>647</v>
       </c>
       <c r="E19" s="178"/>
       <c r="F19" s="178"/>
@@ -21520,22 +21553,22 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="C24" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="99">
+        <v>1098761234</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="64">
-        <v>10</v>
-      </c>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="59">
+        <v>11</v>
+      </c>
+      <c r="H24" s="60" t="s">
         <v>300</v>
       </c>
       <c r="I24" s="61">
@@ -21564,20 +21597,32 @@
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="60"/>
+      <c r="C25" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="E25" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" s="64">
+        <v>10</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>300</v>
+      </c>
       <c r="I25" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="111" t="s">
-        <v>441</v>
+      <c r="J25" s="63" t="s">
+        <v>568</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="L25" s="63">
         <v>1</v>
@@ -21596,29 +21641,41 @@
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="59">
+        <v>9</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="111" t="s">
-        <v>443</v>
+      <c r="J26" s="63" t="s">
+        <v>569</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="L26" s="63" t="s">
-        <v>445</v>
+        <v>314</v>
+      </c>
+      <c r="L26" s="63">
+        <v>20</v>
       </c>
       <c r="M26" s="63" t="s">
         <v>299</v>
       </c>
       <c r="N26" s="64">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O26" s="65" t="s">
         <v>300</v>
@@ -21628,29 +21685,41 @@
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="59">
+        <v>20</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="59">
+        <v>3</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I27" s="62">
         <v>4</v>
       </c>
       <c r="J27" s="111" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="L27" s="63" t="s">
-        <v>437</v>
+        <v>442</v>
+      </c>
+      <c r="L27" s="63">
+        <v>1</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="N27" s="63">
-        <v>20</v>
+      <c r="N27" s="64">
+        <v>10</v>
       </c>
       <c r="O27" s="65" t="s">
         <v>300</v>
@@ -21669,16 +21738,24 @@
       <c r="I28" s="61">
         <v>5</v>
       </c>
-      <c r="J28" s="63" t="s">
-        <v>325</v>
+      <c r="J28" s="111" t="s">
+        <v>443</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
+        <v>444</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N28" s="64">
+        <v>50</v>
+      </c>
+      <c r="O28" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="29" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B29" s="58">
@@ -21693,12 +21770,24 @@
       <c r="I29" s="62">
         <v>6</v>
       </c>
-      <c r="J29" s="111"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="65"/>
+      <c r="J29" s="111" t="s">
+        <v>432</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N29" s="63">
+        <v>20</v>
+      </c>
+      <c r="O29" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B30" s="58">
@@ -21713,12 +21802,24 @@
       <c r="I30" s="61">
         <v>7</v>
       </c>
-      <c r="J30" s="111"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="65"/>
+      <c r="J30" s="111" t="s">
+        <v>649</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="L30" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" s="63">
+        <v>10</v>
+      </c>
+      <c r="O30" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="31" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B31" s="58">
@@ -21734,7 +21835,9 @@
         <v>8</v>
       </c>
       <c r="J31" s="111"/>
-      <c r="K31" s="63"/>
+      <c r="K31" s="63" t="s">
+        <v>326</v>
+      </c>
       <c r="L31" s="63"/>
       <c r="M31" s="63"/>
       <c r="N31" s="64"/>
@@ -22557,8 +22660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -25785,8 +25888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K28"/>
+    <sheetView topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -26196,7 +26299,7 @@
       </c>
       <c r="C19" s="176"/>
       <c r="D19" s="177" t="s">
-        <v>471</v>
+        <v>645</v>
       </c>
       <c r="E19" s="178"/>
       <c r="F19" s="178"/>
@@ -26318,22 +26421,22 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="C24" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="99">
+        <v>1098761234</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="64">
-        <v>10</v>
-      </c>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="59">
+        <v>11</v>
+      </c>
+      <c r="H24" s="60" t="s">
         <v>300</v>
       </c>
       <c r="I24" s="61">
@@ -26362,20 +26465,32 @@
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="C25" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="E25" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" s="64">
+        <v>10</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>300</v>
+      </c>
       <c r="I25" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="111" t="s">
-        <v>469</v>
+      <c r="J25" s="63" t="s">
+        <v>568</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="L25" s="63">
         <v>1</v>
@@ -26383,7 +26498,7 @@
       <c r="M25" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="64">
         <v>10</v>
       </c>
       <c r="O25" s="65" t="s">
@@ -26394,29 +26509,41 @@
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="59">
+        <v>9</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="111" t="s">
-        <v>463</v>
+      <c r="J26" s="63" t="s">
+        <v>569</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>460</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>464</v>
+        <v>314</v>
+      </c>
+      <c r="L26" s="63">
+        <v>20</v>
       </c>
       <c r="M26" s="63" t="s">
         <v>299</v>
       </c>
       <c r="N26" s="64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O26" s="65" t="s">
         <v>300</v>
@@ -26426,29 +26553,41 @@
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="59">
+        <v>20</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="59">
+        <v>3</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I27" s="62">
         <v>4</v>
       </c>
       <c r="J27" s="111" t="s">
-        <v>308</v>
+        <v>469</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>461</v>
-      </c>
-      <c r="L27" s="59" t="s">
-        <v>465</v>
+        <v>639</v>
+      </c>
+      <c r="L27" s="63">
+        <v>1</v>
       </c>
       <c r="M27" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="N27" s="64">
-        <v>20</v>
+      <c r="N27" s="63">
+        <v>10</v>
       </c>
       <c r="O27" s="65" t="s">
         <v>300</v>
@@ -26468,13 +26607,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="111" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M28" s="63" t="s">
         <v>299</v>
@@ -26499,12 +26638,24 @@
       <c r="I29" s="62">
         <v>6</v>
       </c>
-      <c r="J29" s="111"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="65"/>
+      <c r="J29" s="111" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N29" s="64">
+        <v>20</v>
+      </c>
+      <c r="O29" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B30" s="58">
@@ -26519,12 +26670,24 @@
       <c r="I30" s="61">
         <v>7</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
+      <c r="J30" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M30" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" s="64">
+        <v>20</v>
+      </c>
+      <c r="O30" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="31" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B31" s="58">
@@ -26539,12 +26702,24 @@
       <c r="I31" s="62">
         <v>8</v>
       </c>
-      <c r="J31" s="111"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="65"/>
+      <c r="J31" s="111" t="s">
+        <v>642</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="L31" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" s="63">
+        <v>10</v>
+      </c>
+      <c r="O31" s="65" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="32" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B32" s="58">
@@ -36981,7 +37156,7 @@
   <dimension ref="B2:L48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.500000"/>

--- a/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="19"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
   <si>
     <t>버전</t>
   </si>
@@ -4570,6 +4570,12 @@
   </si>
   <si>
     <t>CARD_SELECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_list": [{"TOTAL":"5","CURRENT_PAGE":"1","CURRENT_NUM":"1"}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CARD_NUMBER":"1234-5678-1234-4321","CARD_SELECTED":"false"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"agent_list": [{"TOTAL":"3"}],"DATA":[{"SEQ":"1","NAME":"김태현","AGENT_NAME":"관악 1호점","WASH_AREA":"관악구, 금천구,영등포구","RESERVE_TIME":"7/8/9/10/13/14/15/17/18/19/20"},{"SEQ":"2","ADDRESS":"송파구 석촌 호수로"},{"SEQ":"1","NAME":"김태현","AGENT_NAME":"관악 1호점","WASH_AREA":"관악구, 금천구,영등포구","RESERVE_TIME":"7/8/9/10/13/14/15/17/18/19/20"},{"SEQ":"2","ADDRESS":"송파구 석촌 호수로"}]}</t>
   </si>
 </sst>
 </file>
@@ -7353,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A17" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -7759,7 +7765,7 @@
       </c>
       <c r="C19" s="176"/>
       <c r="D19" s="177" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="E19" s="178"/>
       <c r="F19" s="178"/>
@@ -7997,7 +8003,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="52" customFormat="1">
+    <row r="27" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B27" s="58">
         <v>4</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:15" s="52" customFormat="1">
+    <row r="29" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B29" s="58">
         <v>6</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="2:15" s="52" customFormat="1">
+    <row r="30" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B30" s="58">
         <v>7</v>
       </c>
@@ -8113,7 +8119,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
-    <row r="31" spans="2:15" s="52" customFormat="1">
+    <row r="31" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B31" s="58">
         <v>8</v>
       </c>
@@ -8153,7 +8159,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
-    <row r="33" spans="2:15" s="52" customFormat="1">
+    <row r="33" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B33" s="58">
         <v>10</v>
       </c>
@@ -21020,8 +21026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -21431,7 +21437,7 @@
       </c>
       <c r="C19" s="176"/>
       <c r="D19" s="177" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E19" s="178"/>
       <c r="F19" s="178"/>
@@ -22660,8 +22666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:O26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -29106,8 +29112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.66406250" defaultRowHeight="13.500000"/>
@@ -29636,22 +29642,22 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="C24" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="99">
+        <v>1098761234</v>
+      </c>
+      <c r="F24" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="64">
-        <v>10</v>
-      </c>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="59">
+        <v>11</v>
+      </c>
+      <c r="H24" s="60" t="s">
         <v>300</v>
       </c>
       <c r="I24" s="61">
@@ -29680,12 +29686,24 @@
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="60"/>
+      <c r="C25" s="63" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>544</v>
+      </c>
+      <c r="E25" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" s="64">
+        <v>10</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>300</v>
+      </c>
       <c r="I25" s="62">
         <v>2</v>
       </c>
@@ -29712,12 +29730,24 @@
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="59">
+        <v>9</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I26" s="61">
         <v>3</v>
       </c>
@@ -29744,12 +29774,24 @@
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="59">
+        <v>20</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="59">
+        <v>3</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>300</v>
+      </c>
       <c r="I27" s="62">
         <v>4</v>
       </c>
@@ -37155,8 +37197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.500000"/>
@@ -47678,8 +47720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -48322,7 +48364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="52" customFormat="1">
+    <row r="27" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B27" s="58">
         <v>4</v>
       </c>
@@ -48364,7 +48406,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
-    <row r="29" spans="2:15" s="52" customFormat="1">
+    <row r="29" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B29" s="58">
         <v>6</v>
       </c>
@@ -48384,7 +48426,7 @@
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
-    <row r="30" spans="2:15" s="52" customFormat="1">
+    <row r="30" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B30" s="58">
         <v>7</v>
       </c>
@@ -48404,7 +48446,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
-    <row r="31" spans="2:15" s="52" customFormat="1">
+    <row r="31" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B31" s="58">
         <v>8</v>
       </c>
@@ -48444,7 +48486,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
-    <row r="33" spans="2:15" s="52" customFormat="1">
+    <row r="33" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B33" s="58">
         <v>10</v>
       </c>

--- a/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" firstSheet="5" activeTab="9"/>
+    <workbookView minimized="1" xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -2934,7 +2934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="653">
   <si>
     <t>버전</t>
   </si>
@@ -4953,14 +4953,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REQUEST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> {"agent_list": [{"TOTAL":"3"}],"DATA":[{"SEQ":"1","NAME":"김태현","AGENT_NAME":"관악 1호점","WASH_AREA":"관악구, 금천구,영등포구",
-  "예약정보":[{"RESERVE_TIME":"07:00", "RESERVE_STATUS":"Y"},{"RESERVE_TIME":"08:00", "RESERVE_STATUS":"Y"},...]},
+  "TIME_INFO":[{"RESERVE_TIME":"07:00", "RESERVE_STATUS":"Y"},{"RESERVE_TIME":"08:00", "RESERVE_STATUS":"Y"},...]},
  {"SEQ":"1","NAME":"김태현","AGENT_NAME":"관악 1호점","WASH_AREA":"관악구, 금천구,영등포구",
-  "예약정보":[{"RESERVE_TIME":"07:00", "RESERVE_STATUS":"Y"},{"RESERVE_TIME":"08:00", "RESERVE_STATUS":"Y"},...]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQUEST_DATE</t>
+  "TIME_INFO":[{"RESERVE_TIME":"07:00", "RESERVE_STATUS":"Y"},{"RESERVE_TIME":"08:00", "RESERVE_STATUS":"Y"},...]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7218,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7624,7 +7628,7 @@
       </c>
       <c r="C19" s="152"/>
       <c r="D19" s="153" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E19" s="154"/>
       <c r="F19" s="154"/>
@@ -7768,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>314</v>
+        <v>651</v>
       </c>
       <c r="K24" s="63" t="s">
         <v>249</v>
@@ -7835,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>644</v>

--- a/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.4_20200309.xlsx
@@ -42892,7 +42892,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
